--- a/full base.xlsx
+++ b/full base.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMeregone\Documents\Programs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMeregone\Documents\datalaptops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D7D381-D321-42B2-BB2C-9DDEBA1BD44C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DE5EE-6FD3-45FD-A84C-AC62C062E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6C9A883-3F23-4BFD-A0A0-833FB6DF1CB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$177</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="379">
   <si>
     <t>User</t>
   </si>
@@ -155,9 +155,6 @@
     <t>CG66VW3</t>
   </si>
   <si>
-    <t> Abril Ravecca</t>
-  </si>
-  <si>
     <t>6966VW3</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t>Catalina Moreno</t>
   </si>
   <si>
-    <t>BGZ3SW3</t>
-  </si>
-  <si>
     <t>8SBDBY3</t>
   </si>
   <si>
@@ -308,9 +302,6 @@
     <t>HDYTVH3</t>
   </si>
   <si>
-    <t>79DTV93</t>
-  </si>
-  <si>
     <t>BTZY3W3</t>
   </si>
   <si>
@@ -383,9 +374,6 @@
     <t>HQ76WW3</t>
   </si>
   <si>
-    <t>3BX7BX3</t>
-  </si>
-  <si>
     <t>8MBDBY3</t>
   </si>
   <si>
@@ -533,9 +521,6 @@
     <t>CNB4VW3</t>
   </si>
   <si>
-    <t> Ludmila Terceiro</t>
-  </si>
-  <si>
     <t>5VC6VW3</t>
   </si>
   <si>
@@ -668,9 +653,6 @@
     <t>369T1B3</t>
   </si>
   <si>
-    <t>C5J1CL3</t>
-  </si>
-  <si>
     <t>66J1CL3</t>
   </si>
   <si>
@@ -1016,12 +998,6 @@
     <t>Sofia C</t>
   </si>
   <si>
-    <t>Xavier</t>
-  </si>
-  <si>
-    <t>6H2KKY3</t>
-  </si>
-  <si>
     <t>Liz A</t>
   </si>
   <si>
@@ -1037,9 +1013,6 @@
     <t>Ethan</t>
   </si>
   <si>
-    <t>Lizzie</t>
-  </si>
-  <si>
     <t>Nahuel</t>
   </si>
   <si>
@@ -1143,6 +1116,66 @@
   </si>
   <si>
     <t>FN3NKB4</t>
+  </si>
+  <si>
+    <t>Kei</t>
+  </si>
+  <si>
+    <t>15LLN74</t>
+  </si>
+  <si>
+    <t>Agustina V</t>
+  </si>
+  <si>
+    <t>1DSK5Y3</t>
+  </si>
+  <si>
+    <t>Melanie B</t>
+  </si>
+  <si>
+    <t>8J1PVW3</t>
+  </si>
+  <si>
+    <t>Jamie Hughes</t>
+  </si>
+  <si>
+    <t>D1LLN74</t>
+  </si>
+  <si>
+    <t>G8VKJL3</t>
+  </si>
+  <si>
+    <t>CM3NKB4</t>
+  </si>
+  <si>
+    <t>Ricky Aponte</t>
+  </si>
+  <si>
+    <t>Sara Weller</t>
+  </si>
+  <si>
+    <t>8VB9L44</t>
+  </si>
+  <si>
+    <t>Sebastian A</t>
+  </si>
+  <si>
+    <t>9R2J5W3</t>
+  </si>
+  <si>
+    <t>Gabrielle McKenzie</t>
+  </si>
+  <si>
+    <t>CHDWH54</t>
+  </si>
+  <si>
+    <t>CFKWZT3</t>
+  </si>
+  <si>
+    <t>Ludmila Terceiro</t>
+  </si>
+  <si>
+    <t>Abril Ravecca</t>
   </si>
 </sst>
 </file>
@@ -1599,10 +1632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE3939-ED8F-4C12-8744-EEF31595E9A6}">
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="K81" sqref="K81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1646,7 +1679,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1675,7 +1708,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -1704,7 +1737,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
@@ -1733,10 +1766,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C5" s="6">
         <v>44611</v>
@@ -1762,7 +1795,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>22</v>
@@ -1791,7 +1824,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>23</v>
@@ -1820,7 +1853,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>26</v>
@@ -1878,10 +1911,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" s="6">
         <v>45013</v>
@@ -1907,10 +1940,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C11" s="6">
         <v>45820</v>
@@ -1936,28 +1969,28 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>236</v>
+        <v>374</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>375</v>
       </c>
       <c r="C12" s="6">
-        <v>44555</v>
+        <v>45616</v>
       </c>
       <c r="D12" s="6">
-        <v>46016</v>
+        <v>47077</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
@@ -1965,22 +1998,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
-        <v>44722</v>
+        <v>44555</v>
       </c>
       <c r="D13" s="6">
-        <v>46183</v>
+        <v>46016</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>12</v>
@@ -1994,16 +2027,16 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
-        <v>44611</v>
+        <v>44722</v>
       </c>
       <c r="D14" s="6">
-        <v>46072</v>
+        <v>46183</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -2023,22 +2056,22 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="6">
-        <v>45095</v>
+        <v>44611</v>
       </c>
       <c r="D15" s="6">
-        <v>46556</v>
+        <v>46072</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>12</v>
@@ -2052,16 +2085,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6">
-        <v>44983</v>
+        <v>45095</v>
       </c>
       <c r="D16" s="6">
-        <v>46444</v>
+        <v>46556</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -2081,16 +2114,16 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="6">
-        <v>44925</v>
+        <v>44983</v>
       </c>
       <c r="D17" s="6">
-        <v>46386</v>
+        <v>46444</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -2110,22 +2143,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>243</v>
+        <v>33</v>
       </c>
       <c r="C18" s="6">
-        <v>45756</v>
+        <v>44925</v>
       </c>
       <c r="D18" s="6">
-        <v>47217</v>
+        <v>46386</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -2139,22 +2172,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="C19" s="6">
-        <v>45013</v>
+        <v>45756</v>
       </c>
       <c r="D19" s="6">
-        <v>46474</v>
+        <v>47217</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
@@ -2168,39 +2201,39 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="6">
+        <v>45013</v>
+      </c>
+      <c r="D20" s="6">
+        <v>46474</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" s="6">
-        <v>45491</v>
-      </c>
-      <c r="D20" s="6">
-        <v>46952</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="C21" s="6">
         <v>45491</v>
@@ -2225,81 +2258,81 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>245</v>
+      <c r="A22" s="8" t="s">
+        <v>378</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C22" s="6">
+        <v>45491</v>
+      </c>
+      <c r="D22" s="6">
+        <v>46952</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="6">
         <v>45527</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D23" s="6">
         <v>46988</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C24" s="6">
         <v>45820</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D24" s="6">
         <v>47281</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="6">
-        <v>45527</v>
-      </c>
-      <c r="D24" s="6">
-        <v>46988</v>
-      </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>12</v>
@@ -2313,28 +2346,28 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="C25" s="6">
-        <v>45447</v>
+        <v>45527</v>
       </c>
       <c r="D25" s="6">
-        <v>46908</v>
+        <v>46988</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>249</v>
+        <v>18</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>14</v>
@@ -2342,16 +2375,16 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="C26" s="6">
-        <v>45042</v>
+        <v>45447</v>
       </c>
       <c r="D26" s="6">
-        <v>46503</v>
+        <v>46908</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>10</v>
@@ -2363,7 +2396,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>14</v>
@@ -2371,16 +2404,16 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6">
-        <v>44958</v>
+        <v>45042</v>
       </c>
       <c r="D27" s="6">
-        <v>46419</v>
+        <v>46503</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
@@ -2400,16 +2433,16 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6">
-        <v>44719</v>
+        <v>44958</v>
       </c>
       <c r="D28" s="6">
-        <v>46180</v>
+        <v>46419</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
@@ -2429,22 +2462,22 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6">
-        <v>45064</v>
+        <v>44719</v>
       </c>
       <c r="D29" s="6">
-        <v>46525</v>
+        <v>46180</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -2458,22 +2491,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6">
-        <v>44994</v>
+        <v>45064</v>
       </c>
       <c r="D30" s="6">
-        <v>46455</v>
+        <v>46525</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -2487,22 +2520,22 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6">
-        <v>44571</v>
+        <v>44994</v>
       </c>
       <c r="D31" s="6">
-        <v>46032</v>
+        <v>46455</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>12</v>
@@ -2516,28 +2549,28 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C32" s="6">
-        <v>43573</v>
-      </c>
-      <c r="D32" s="7">
-        <v>45034</v>
+        <v>44571</v>
+      </c>
+      <c r="D32" s="6">
+        <v>46032</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>14</v>
@@ -2545,28 +2578,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6">
-        <v>44555</v>
-      </c>
-      <c r="D33" s="6">
-        <v>46016</v>
+        <v>43573</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45034</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>14</v>
@@ -2574,22 +2607,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6">
-        <v>44925</v>
+        <v>44555</v>
       </c>
       <c r="D34" s="6">
-        <v>46386</v>
+        <v>46016</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>12</v>
@@ -2603,74 +2636,74 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>258</v>
+        <v>52</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C35" s="6">
+        <v>45501</v>
+      </c>
+      <c r="D35" s="6">
+        <v>46962</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="6">
+        <v>44786</v>
+      </c>
+      <c r="D36" s="6">
+        <v>46247</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C35" s="6">
-        <v>44786</v>
-      </c>
-      <c r="D35" s="6">
-        <v>46247</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="6">
+      <c r="C37" s="6">
         <v>45491</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D37" s="6">
         <v>46952</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="6">
-        <v>45248</v>
-      </c>
-      <c r="D37" s="6">
-        <v>46709</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
@@ -2690,80 +2723,80 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C38" s="6">
+        <v>45248</v>
+      </c>
+      <c r="D38" s="6">
+        <v>46709</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="6">
         <v>44786</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D39" s="6">
         <v>46247</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="6">
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="6">
         <v>45756</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>47217</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C40" s="6">
-        <v>45851</v>
-      </c>
-      <c r="D40" s="6">
-        <v>47312</v>
-      </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>12</v>
@@ -2777,16 +2810,16 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C41" s="6">
-        <v>45447</v>
-      </c>
-      <c r="D41" s="10">
-        <v>46908</v>
+        <v>45851</v>
+      </c>
+      <c r="D41" s="6">
+        <v>47312</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
@@ -2806,22 +2839,22 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>58</v>
+        <v>364</v>
       </c>
       <c r="C42" s="6">
-        <v>44817</v>
+        <v>45013</v>
       </c>
       <c r="D42" s="6">
-        <v>46278</v>
+        <v>46474</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>12</v>
@@ -2835,22 +2868,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>366</v>
       </c>
       <c r="C43" s="6">
-        <v>44282</v>
+        <v>45756</v>
       </c>
       <c r="D43" s="6">
-        <v>45743</v>
+        <v>47217</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>12</v>
@@ -2864,16 +2897,16 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>184</v>
       </c>
       <c r="C44" s="6">
-        <v>45012</v>
-      </c>
-      <c r="D44" s="6">
-        <v>46473</v>
+        <v>45447</v>
+      </c>
+      <c r="D44" s="10">
+        <v>46908</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
@@ -2893,22 +2926,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C45" s="6">
-        <v>44830</v>
+        <v>44817</v>
       </c>
       <c r="D45" s="6">
-        <v>46291</v>
+        <v>46278</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>12</v>
@@ -2922,16 +2955,16 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C46" s="6">
-        <v>44768</v>
+        <v>44282</v>
       </c>
       <c r="D46" s="6">
-        <v>46229</v>
+        <v>45743</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>10</v>
@@ -2951,10 +2984,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C47" s="6">
         <v>45012</v>
@@ -2980,22 +3013,22 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C48" s="6">
-        <v>45043</v>
+        <v>44830</v>
       </c>
       <c r="D48" s="6">
-        <v>46504</v>
+        <v>46291</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>12</v>
@@ -3009,16 +3042,16 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C49" s="6">
-        <v>45073</v>
+        <v>44768</v>
       </c>
       <c r="D49" s="6">
-        <v>46534</v>
+        <v>46229</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
@@ -3038,22 +3071,22 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C50" s="6">
-        <v>44587</v>
+        <v>45012</v>
       </c>
       <c r="D50" s="6">
-        <v>46048</v>
+        <v>46473</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>12</v>
@@ -3067,22 +3100,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C51" s="6">
-        <v>44372</v>
+        <v>45043</v>
       </c>
       <c r="D51" s="6">
-        <v>45833</v>
+        <v>46504</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>12</v>
@@ -3096,16 +3129,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C52" s="6">
-        <v>45012</v>
+        <v>45073</v>
       </c>
       <c r="D52" s="6">
-        <v>46473</v>
+        <v>46534</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -3125,22 +3158,22 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C53" s="6">
-        <v>45501</v>
+        <v>44587</v>
       </c>
       <c r="D53" s="6">
-        <v>46962</v>
+        <v>46048</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>12</v>
@@ -3153,23 +3186,23 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>70</v>
+      <c r="A54" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C54" s="6">
-        <v>45528</v>
+        <v>44372</v>
       </c>
       <c r="D54" s="6">
-        <v>46989</v>
+        <v>45833</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>12</v>
@@ -3183,28 +3216,28 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>154</v>
+        <v>65</v>
       </c>
       <c r="C55" s="6">
-        <v>45041</v>
+        <v>45012</v>
       </c>
       <c r="D55" s="6">
-        <v>46502</v>
+        <v>46473</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="I55" s="3" t="s">
         <v>14</v>
@@ -3212,22 +3245,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6">
-        <v>45756</v>
+        <v>45501</v>
       </c>
       <c r="D56" s="6">
-        <v>47217</v>
+        <v>46962</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>12</v>
@@ -3240,23 +3273,23 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>274</v>
+      <c r="A57" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
       <c r="C57" s="6">
-        <v>45527</v>
+        <v>45528</v>
       </c>
       <c r="D57" s="6">
-        <v>46988</v>
+        <v>46989</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>12</v>
@@ -3270,28 +3303,28 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>193</v>
+        <v>267</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>150</v>
       </c>
       <c r="C58" s="6">
-        <v>45756</v>
+        <v>45041</v>
       </c>
       <c r="D58" s="6">
-        <v>47217</v>
+        <v>46502</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>11</v>
+        <v>151</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>14</v>
@@ -3299,16 +3332,16 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="C59" s="6">
-        <v>43792</v>
-      </c>
-      <c r="D59" s="7">
-        <v>45253</v>
+        <v>45756</v>
+      </c>
+      <c r="D59" s="6">
+        <v>47217</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>10</v>
@@ -3320,7 +3353,7 @@
         <v>12</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>14</v>
@@ -3328,22 +3361,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="C60" s="6">
-        <v>45012</v>
+        <v>45527</v>
       </c>
       <c r="D60" s="6">
-        <v>46473</v>
+        <v>46988</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>12</v>
@@ -3357,22 +3390,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>74</v>
+        <v>189</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C61" s="6">
-        <v>45012</v>
+        <v>45756</v>
       </c>
       <c r="D61" s="6">
-        <v>46473</v>
+        <v>47217</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>12</v>
@@ -3386,28 +3419,28 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>75</v>
+        <v>356</v>
       </c>
       <c r="C62" s="6">
-        <v>44799</v>
+        <v>45821</v>
       </c>
       <c r="D62" s="6">
-        <v>46260</v>
+        <v>47282</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>18</v>
+        <v>357</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>14</v>
@@ -3415,16 +3448,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="C63" s="6">
-        <v>44861</v>
-      </c>
-      <c r="D63" s="6">
-        <v>46322</v>
+        <v>43792</v>
+      </c>
+      <c r="D63" s="7">
+        <v>45253</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
@@ -3433,10 +3466,10 @@
         <v>11</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>14</v>
@@ -3444,22 +3477,22 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="C64" s="6">
-        <v>44611</v>
+        <v>45012</v>
       </c>
       <c r="D64" s="6">
-        <v>46072</v>
+        <v>46473</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>12</v>
@@ -3473,22 +3506,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C65" s="6">
-        <v>45043</v>
+        <v>45012</v>
       </c>
       <c r="D65" s="6">
-        <v>46504</v>
+        <v>46473</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>12</v>
@@ -3502,16 +3535,16 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C66" s="6">
-        <v>45012</v>
+        <v>44799</v>
       </c>
       <c r="D66" s="6">
-        <v>46473</v>
+        <v>46260</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>10</v>
@@ -3530,26 +3563,26 @@
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="8" t="s">
-        <v>81</v>
+      <c r="A67" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C67" s="6">
-        <v>45501</v>
+        <v>44861</v>
       </c>
       <c r="D67" s="6">
-        <v>46962</v>
+        <v>46322</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>18</v>
@@ -3560,28 +3593,28 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>138</v>
+        <v>367</v>
       </c>
       <c r="C68" s="6">
-        <v>44953</v>
+        <v>44312</v>
       </c>
       <c r="D68" s="6">
-        <v>46414</v>
+        <v>45773</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>14</v>
@@ -3589,22 +3622,22 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="C69" s="6">
-        <v>44505</v>
+        <v>45043</v>
       </c>
       <c r="D69" s="6">
-        <v>45966</v>
+        <v>46504</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>12</v>
@@ -3613,27 +3646,27 @@
         <v>18</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C70" s="6">
-        <v>44830</v>
+        <v>45012</v>
       </c>
       <c r="D70" s="6">
-        <v>46291</v>
+        <v>46473</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>12</v>
@@ -3646,17 +3679,17 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="9" t="s">
-        <v>199</v>
+      <c r="A71" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="C71" s="6">
-        <v>45820</v>
+        <v>45501</v>
       </c>
       <c r="D71" s="6">
-        <v>47281</v>
+        <v>46962</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>10</v>
@@ -3676,22 +3709,22 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="C72" s="6">
-        <v>44932</v>
+        <v>44953</v>
       </c>
       <c r="D72" s="6">
-        <v>46393</v>
+        <v>46414</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>12</v>
@@ -3705,22 +3738,22 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C73" s="6">
-        <v>45012</v>
+        <v>44505</v>
       </c>
       <c r="D73" s="6">
-        <v>46473</v>
+        <v>45966</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>12</v>
@@ -3729,27 +3762,27 @@
         <v>18</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>367</v>
+        <v>108</v>
       </c>
       <c r="C74" s="6">
-        <v>45851</v>
+        <v>44830</v>
       </c>
       <c r="D74" s="6">
-        <v>47312</v>
+        <v>46291</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>12</v>
@@ -3762,23 +3795,23 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>288</v>
+      <c r="A75" s="9" t="s">
+        <v>194</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>85</v>
+        <v>195</v>
       </c>
       <c r="C75" s="6">
-        <v>45012</v>
+        <v>45820</v>
       </c>
       <c r="D75" s="6">
-        <v>46473</v>
+        <v>47281</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>12</v>
@@ -3792,22 +3825,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C76" s="6">
-        <v>44542</v>
+        <v>44932</v>
       </c>
       <c r="D76" s="6">
-        <v>46003</v>
+        <v>46393</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>12</v>
@@ -3816,27 +3849,27 @@
         <v>18</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C77" s="6">
-        <v>44525</v>
+        <v>45012</v>
       </c>
       <c r="D77" s="6">
-        <v>45986</v>
+        <v>46473</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>12</v>
@@ -3845,27 +3878,27 @@
         <v>18</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>88</v>
+        <v>358</v>
       </c>
       <c r="C78" s="6">
-        <v>45043</v>
+        <v>45851</v>
       </c>
       <c r="D78" s="6">
-        <v>46504</v>
+        <v>47312</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>12</v>
@@ -3879,10 +3912,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="C79" s="6">
         <v>45012</v>
@@ -3894,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>12</v>
@@ -3908,22 +3941,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>208</v>
+        <v>84</v>
       </c>
       <c r="C80" s="6">
-        <v>43971</v>
+        <v>44542</v>
       </c>
       <c r="D80" s="6">
-        <v>45432</v>
+        <v>46003</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>12</v>
@@ -3932,27 +3965,27 @@
         <v>18</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C81" s="6">
-        <v>44376</v>
+        <v>44525</v>
       </c>
       <c r="D81" s="6">
-        <v>45837</v>
+        <v>45986</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>12</v>
@@ -3961,27 +3994,27 @@
         <v>18</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C82" s="6">
-        <v>45012</v>
+        <v>45043</v>
       </c>
       <c r="D82" s="6">
-        <v>46473</v>
+        <v>46504</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>12</v>
@@ -3995,22 +4028,22 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="C83" s="6">
-        <v>44830</v>
+        <v>45012</v>
       </c>
       <c r="D83" s="6">
-        <v>46291</v>
+        <v>46473</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>12</v>
@@ -4024,22 +4057,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c r="C84" s="6">
-        <v>44921</v>
+        <v>43971</v>
       </c>
       <c r="D84" s="6">
-        <v>46382</v>
+        <v>45432</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>12</v>
@@ -4053,22 +4086,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>92</v>
+        <v>368</v>
       </c>
       <c r="C85" s="6">
-        <v>45501</v>
+        <v>45851</v>
       </c>
       <c r="D85" s="6">
-        <v>46962</v>
+        <v>47312</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>12</v>
@@ -4082,10 +4115,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C86" s="6">
         <v>45012</v>
@@ -4097,7 +4130,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>12</v>
@@ -4111,22 +4144,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C87" s="6">
-        <v>45012</v>
+        <v>44830</v>
       </c>
       <c r="D87" s="6">
-        <v>46473</v>
+        <v>46291</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>12</v>
@@ -4140,22 +4173,22 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>95</v>
+        <v>291</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C88" s="6">
-        <v>44925</v>
+        <v>44921</v>
       </c>
       <c r="D88" s="6">
-        <v>46386</v>
+        <v>46382</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>12</v>
@@ -4169,22 +4202,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C89" s="6">
-        <v>44984</v>
+        <v>45501</v>
       </c>
       <c r="D89" s="6">
-        <v>46445</v>
+        <v>46962</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>12</v>
@@ -4198,22 +4231,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C90" s="6">
-        <v>45226</v>
+        <v>45012</v>
       </c>
       <c r="D90" s="6">
-        <v>46687</v>
+        <v>46473</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>12</v>
@@ -4227,22 +4260,22 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C91" s="6">
-        <v>44984</v>
+        <v>45012</v>
       </c>
       <c r="D91" s="6">
-        <v>46445</v>
+        <v>46473</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>12</v>
@@ -4256,16 +4289,16 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>100</v>
+        <v>295</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>92</v>
       </c>
       <c r="C92" s="6">
-        <v>44921</v>
+        <v>44925</v>
       </c>
       <c r="D92" s="6">
-        <v>46382</v>
+        <v>46386</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>10</v>
@@ -4285,22 +4318,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>101</v>
+        <v>296</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C93" s="6">
-        <v>45073</v>
+        <v>44984</v>
       </c>
       <c r="D93" s="6">
-        <v>46534</v>
+        <v>46445</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>12</v>
@@ -4314,16 +4347,16 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C94" s="6">
-        <v>45104</v>
+        <v>45226</v>
       </c>
       <c r="D94" s="6">
-        <v>46565</v>
+        <v>46687</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
@@ -4343,22 +4376,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>105</v>
+        <v>298</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C95" s="6">
-        <v>44921</v>
+        <v>44984</v>
       </c>
       <c r="D95" s="6">
-        <v>46382</v>
+        <v>46445</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>12</v>
@@ -4372,10 +4405,10 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C96" s="6">
         <v>44921</v>
@@ -4387,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>12</v>
@@ -4401,16 +4434,16 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C97" s="6">
-        <v>45501</v>
+        <v>45073</v>
       </c>
       <c r="D97" s="6">
-        <v>46962</v>
+        <v>46534</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
@@ -4430,16 +4463,16 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C98" s="6">
-        <v>44677</v>
+        <v>45104</v>
       </c>
       <c r="D98" s="6">
-        <v>46138</v>
+        <v>46565</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>10</v>
@@ -4459,22 +4492,22 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="C99" s="6">
-        <v>45012</v>
+        <v>44921</v>
       </c>
       <c r="D99" s="6">
-        <v>46473</v>
+        <v>46382</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>12</v>
@@ -4488,10 +4521,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="C100" s="6">
         <v>44921</v>
@@ -4516,17 +4549,17 @@
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A101" s="9" t="s">
-        <v>205</v>
+      <c r="A101" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>206</v>
+        <v>106</v>
       </c>
       <c r="C101" s="6">
-        <v>45820</v>
+        <v>45501</v>
       </c>
       <c r="D101" s="6">
-        <v>47281</v>
+        <v>46962</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>10</v>
@@ -4546,22 +4579,22 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C102" s="6">
-        <v>45042</v>
+        <v>44677</v>
       </c>
       <c r="D102" s="6">
-        <v>46503</v>
+        <v>46138</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>12</v>
@@ -4575,22 +4608,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>183</v>
+        <v>128</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>136</v>
+        <v>208</v>
       </c>
       <c r="C103" s="6">
-        <v>44829</v>
+        <v>45012</v>
       </c>
       <c r="D103" s="6">
-        <v>46290</v>
+        <v>46473</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>12</v>
@@ -4604,16 +4637,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>215</v>
+        <v>303</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="C104" s="6">
-        <v>45756</v>
+        <v>44921</v>
       </c>
       <c r="D104" s="6">
-        <v>47217</v>
+        <v>46382</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>10</v>
@@ -4633,10 +4666,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C105" s="6">
         <v>45820</v>
@@ -4662,22 +4695,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>217</v>
+        <v>304</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="C106" s="6">
-        <v>45851</v>
+        <v>45042</v>
       </c>
       <c r="D106" s="6">
-        <v>47312</v>
+        <v>46503</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>12</v>
@@ -4691,16 +4724,16 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>221</v>
+        <v>178</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="C107" s="6">
-        <v>45851</v>
+        <v>44829</v>
       </c>
       <c r="D107" s="6">
-        <v>47312</v>
+        <v>46290</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>10</v>
@@ -4720,16 +4753,16 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="C108" s="6">
-        <v>45851</v>
+        <v>45756</v>
       </c>
       <c r="D108" s="6">
-        <v>47312</v>
+        <v>47217</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>10</v>
@@ -4748,23 +4781,23 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>311</v>
+      <c r="A109" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
       <c r="C109" s="6">
-        <v>45012</v>
+        <v>45820</v>
       </c>
       <c r="D109" s="6">
-        <v>46473</v>
+        <v>47281</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>12</v>
@@ -4778,22 +4811,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>312</v>
+        <v>211</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="C110" s="6">
-        <v>44830</v>
+        <v>45851</v>
       </c>
       <c r="D110" s="6">
-        <v>46291</v>
+        <v>47312</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>137</v>
+        <v>11</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>12</v>
@@ -4807,22 +4840,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>139</v>
+        <v>216</v>
       </c>
       <c r="C111" s="6">
-        <v>44953</v>
+        <v>45851</v>
       </c>
       <c r="D111" s="6">
-        <v>46414</v>
+        <v>47312</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>12</v>
@@ -4836,22 +4869,22 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>314</v>
+        <v>217</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="C112" s="6">
-        <v>45226</v>
+        <v>45851</v>
       </c>
       <c r="D112" s="6">
-        <v>46687</v>
+        <v>47312</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>12</v>
@@ -4865,22 +4898,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C113" s="6">
-        <v>45226</v>
+        <v>45012</v>
       </c>
       <c r="D113" s="6">
-        <v>46687</v>
+        <v>46473</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>12</v>
@@ -4894,22 +4927,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C114" s="6">
-        <v>45257</v>
+        <v>44830</v>
       </c>
       <c r="D114" s="6">
-        <v>46718</v>
+        <v>46291</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>12</v>
@@ -4923,10 +4956,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C115" s="6">
         <v>44921</v>
@@ -4938,7 +4971,7 @@
         <v>10</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>12</v>
@@ -4952,22 +4985,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="C116" s="6">
-        <v>45226</v>
+        <v>44830</v>
       </c>
       <c r="D116" s="6">
-        <v>46687</v>
+        <v>46291</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>12</v>
@@ -4981,22 +5014,22 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C117" s="6">
-        <v>45257</v>
+        <v>44953</v>
       </c>
       <c r="D117" s="6">
-        <v>46718</v>
+        <v>46414</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>12</v>
@@ -5010,10 +5043,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C118" s="6">
         <v>45226</v>
@@ -5039,22 +5072,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="C119" s="6">
-        <v>45257</v>
+        <v>44921</v>
       </c>
       <c r="D119" s="6">
-        <v>46718</v>
+        <v>46382</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>12</v>
@@ -5068,16 +5101,16 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C120" s="6">
-        <v>44587</v>
+        <v>45226</v>
       </c>
       <c r="D120" s="6">
-        <v>46048</v>
+        <v>46687</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>10</v>
@@ -5096,17 +5129,17 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>323</v>
+      <c r="A121" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C121" s="6">
-        <v>44953</v>
+        <v>45532</v>
       </c>
       <c r="D121" s="6">
-        <v>46414</v>
+        <v>46993</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>10</v>
@@ -5126,16 +5159,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>324</v>
+        <v>126</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C122" s="6">
-        <v>45257</v>
+        <v>44986</v>
       </c>
       <c r="D122" s="6">
-        <v>46718</v>
+        <v>46447</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>10</v>
@@ -5155,16 +5188,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>326</v>
+        <v>110</v>
       </c>
       <c r="C123" s="6">
-        <v>45257</v>
+        <v>44953</v>
       </c>
       <c r="D123" s="6">
-        <v>46718</v>
+        <v>46414</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>10</v>
@@ -5184,22 +5217,22 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C124" s="6">
-        <v>45012</v>
+        <v>44986</v>
       </c>
       <c r="D124" s="6">
-        <v>46473</v>
+        <v>46447</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="G124" s="3" t="s">
         <v>12</v>
@@ -5213,16 +5246,16 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C125" s="6">
-        <v>45073</v>
+        <v>45257</v>
       </c>
       <c r="D125" s="6">
-        <v>46534</v>
+        <v>46718</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>10</v>
@@ -5242,16 +5275,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C126" s="6">
-        <v>45379</v>
+        <v>45073</v>
       </c>
       <c r="D126" s="6">
-        <v>46840</v>
+        <v>46534</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>10</v>
@@ -5270,17 +5303,17 @@
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
-        <v>158</v>
+      <c r="A127" s="3" t="s">
+        <v>331</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C127" s="6">
-        <v>45532</v>
+        <v>44958</v>
       </c>
       <c r="D127" s="6">
-        <v>46993</v>
+        <v>46419</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>10</v>
@@ -5300,10 +5333,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C128" s="6">
         <v>45012</v>
@@ -5328,17 +5361,17 @@
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
-        <v>162</v>
+      <c r="A129" s="3" t="s">
+        <v>311</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C129" s="6">
-        <v>45012</v>
+        <v>44921</v>
       </c>
       <c r="D129" s="6">
-        <v>46473</v>
+        <v>46382</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>10</v>
@@ -5357,23 +5390,23 @@
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
-        <v>164</v>
+      <c r="A130" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
       <c r="C130" s="6">
-        <v>45501</v>
+        <v>45226</v>
       </c>
       <c r="D130" s="6">
-        <v>46962</v>
+        <v>46687</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>12</v>
@@ -5386,23 +5419,23 @@
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
-        <v>166</v>
+      <c r="A131" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C131" s="6">
-        <v>45532</v>
+        <v>45257</v>
       </c>
       <c r="D131" s="6">
-        <v>46993</v>
+        <v>46718</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>12</v>
@@ -5416,22 +5449,22 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="C132" s="6">
-        <v>44830</v>
+        <v>45012</v>
       </c>
       <c r="D132" s="6">
-        <v>46291</v>
+        <v>46473</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>12</v>
@@ -5445,16 +5478,16 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C133" s="6">
-        <v>44953</v>
+        <v>45012</v>
       </c>
       <c r="D133" s="6">
-        <v>46414</v>
+        <v>46473</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>10</v>
@@ -5474,16 +5507,16 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="C134" s="6">
-        <v>45134</v>
+        <v>45226</v>
       </c>
       <c r="D134" s="6">
-        <v>46595</v>
+        <v>46687</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>10</v>
@@ -5503,16 +5536,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="C135" s="6">
-        <v>44799</v>
+        <v>45257</v>
       </c>
       <c r="D135" s="6">
-        <v>46260</v>
+        <v>46718</v>
       </c>
       <c r="E135" s="3" t="s">
         <v>10</v>
@@ -5531,17 +5564,17 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="3" t="s">
-        <v>334</v>
+      <c r="A136" s="8" t="s">
+        <v>377</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>116</v>
+        <v>376</v>
       </c>
       <c r="C136" s="6">
-        <v>45043</v>
+        <v>44282</v>
       </c>
       <c r="D136" s="6">
-        <v>46504</v>
+        <v>45743</v>
       </c>
       <c r="E136" s="3" t="s">
         <v>10</v>
@@ -5553,24 +5586,24 @@
         <v>12</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>18</v>
+        <v>243</v>
       </c>
       <c r="I136" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="3" t="s">
-        <v>335</v>
+      <c r="A137" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C137" s="6">
-        <v>45104</v>
+        <v>45532</v>
       </c>
       <c r="D137" s="6">
-        <v>46565</v>
+        <v>46993</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>10</v>
@@ -5590,22 +5623,22 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C138" s="6">
-        <v>44921</v>
+        <v>44953</v>
       </c>
       <c r="D138" s="6">
-        <v>46382</v>
+        <v>46414</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>12</v>
@@ -5619,22 +5652,22 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="C139" s="6">
-        <v>44921</v>
+        <v>44587</v>
       </c>
       <c r="D139" s="6">
-        <v>46382</v>
+        <v>46048</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>12</v>
@@ -5648,16 +5681,16 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C140" s="6">
-        <v>44953</v>
+        <v>44799</v>
       </c>
       <c r="D140" s="6">
-        <v>46414</v>
+        <v>46260</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>10</v>
@@ -5677,16 +5710,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C141" s="6">
-        <v>45012</v>
+        <v>44953</v>
       </c>
       <c r="D141" s="6">
-        <v>46473</v>
+        <v>46414</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>10</v>
@@ -5706,16 +5739,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C142" s="6">
-        <v>44986</v>
+        <v>45043</v>
       </c>
       <c r="D142" s="6">
-        <v>46447</v>
+        <v>46504</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>10</v>
@@ -5735,16 +5768,16 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>128</v>
+        <v>326</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C143" s="6">
-        <v>44986</v>
+        <v>45104</v>
       </c>
       <c r="D143" s="6">
-        <v>46447</v>
+        <v>46565</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>10</v>
@@ -5764,16 +5797,16 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>130</v>
+        <v>318</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C144" s="6">
-        <v>44986</v>
+        <v>45257</v>
       </c>
       <c r="D144" s="6">
-        <v>46447</v>
+        <v>46718</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>10</v>
@@ -5793,16 +5826,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C145" s="6">
-        <v>44958</v>
+        <v>45379</v>
       </c>
       <c r="D145" s="6">
-        <v>46419</v>
+        <v>46840</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>10</v>
@@ -5821,23 +5854,23 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="3" t="s">
-        <v>341</v>
+      <c r="A146" s="8" t="s">
+        <v>156</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="C146" s="6">
-        <v>44646</v>
+        <v>45012</v>
       </c>
       <c r="D146" s="6">
-        <v>46107</v>
+        <v>46473</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>12</v>
@@ -5846,15 +5879,15 @@
         <v>18</v>
       </c>
       <c r="I146" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C147" s="6">
         <v>45226</v>
@@ -5880,10 +5913,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C148" s="6">
         <v>44983</v>
@@ -5909,10 +5942,10 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C149" s="6">
         <v>45043</v>
@@ -5938,10 +5971,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C150" s="6">
         <v>45012</v>
@@ -5967,10 +6000,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C151" s="6">
         <v>45043</v>
@@ -5996,10 +6029,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C152" s="6">
         <v>44830</v>
@@ -6011,7 +6044,7 @@
         <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>12</v>
@@ -6025,10 +6058,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C153" s="6">
         <v>45043</v>
@@ -6054,10 +6087,10 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C154" s="6">
         <v>45616</v>
@@ -6083,10 +6116,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C155" s="6">
         <v>43870</v>
@@ -6112,22 +6145,22 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>351</v>
+        <v>124</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>226</v>
+        <v>125</v>
       </c>
       <c r="C156" s="6">
-        <v>45530</v>
+        <v>44986</v>
       </c>
       <c r="D156" s="6">
-        <v>46991</v>
+        <v>46447</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G156" s="3" t="s">
         <v>12</v>
@@ -6141,20 +6174,18 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="C157" s="6">
-        <v>43862</v>
-      </c>
-      <c r="D157" s="7">
-        <v>45323</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>45756</v>
+      </c>
+      <c r="D157" s="6">
+        <v>47217</v>
+      </c>
+      <c r="E157" s="3"/>
       <c r="F157" s="3" t="s">
         <v>11</v>
       </c>
@@ -6162,36 +6193,36 @@
         <v>12</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I157" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>185</v>
+        <v>362</v>
       </c>
       <c r="C158" s="6">
-        <v>43617</v>
-      </c>
-      <c r="D158" s="7">
-        <v>45078</v>
+        <v>44527</v>
+      </c>
+      <c r="D158" s="6">
+        <v>45988</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G158" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I158" s="3" t="s">
         <v>14</v>
@@ -6199,16 +6230,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>175</v>
+        <v>362</v>
       </c>
       <c r="C159" s="6">
-        <v>44713</v>
+        <v>44958</v>
       </c>
       <c r="D159" s="6">
-        <v>46174</v>
+        <v>46419</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>10</v>
@@ -6228,28 +6259,28 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>186</v>
+        <v>371</v>
       </c>
       <c r="C160" s="6">
-        <v>45616</v>
+        <v>45603</v>
       </c>
       <c r="D160" s="6">
-        <v>47077</v>
+        <v>47064</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I160" s="3" t="s">
         <v>14</v>
@@ -6257,16 +6288,16 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>117</v>
+        <v>373</v>
       </c>
       <c r="C161" s="6">
-        <v>45078</v>
+        <v>45042</v>
       </c>
       <c r="D161" s="6">
-        <v>46539</v>
+        <v>46503</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>10</v>
@@ -6286,22 +6317,22 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C162" s="6">
-        <v>44958</v>
+        <v>45530</v>
       </c>
       <c r="D162" s="6">
-        <v>46419</v>
+        <v>46991</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>12</v>
@@ -6315,57 +6346,57 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C163" s="6">
-        <v>44958</v>
-      </c>
-      <c r="D163" s="6">
-        <v>46419</v>
+        <v>43862</v>
+      </c>
+      <c r="D163" s="7">
+        <v>45323</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B164" s="11" t="s">
-        <v>104</v>
+        <v>344</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="C164" s="6">
-        <v>44986</v>
-      </c>
-      <c r="D164" s="6">
-        <v>46447</v>
+        <v>43617</v>
+      </c>
+      <c r="D164" s="7">
+        <v>45078</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I164" s="3" t="s">
         <v>14</v>
@@ -6373,22 +6404,22 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>187</v>
+        <v>345</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C165" s="6">
-        <v>45555</v>
+        <v>44713</v>
       </c>
       <c r="D165" s="6">
-        <v>47016</v>
+        <v>46174</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>119</v>
+        <v>11</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>12</v>
@@ -6402,28 +6433,28 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C166" s="6">
-        <v>45658</v>
+        <v>45616</v>
       </c>
       <c r="D166" s="6">
-        <v>47119</v>
+        <v>47077</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>14</v>
@@ -6431,22 +6462,22 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C167" s="6">
-        <v>44621</v>
+        <v>45078</v>
       </c>
       <c r="D167" s="6">
-        <v>46082</v>
+        <v>46539</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>12</v>
@@ -6460,22 +6491,22 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C168" s="6">
-        <v>45078</v>
+        <v>44958</v>
       </c>
       <c r="D168" s="6">
-        <v>46539</v>
+        <v>46419</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>12</v>
@@ -6489,51 +6520,51 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C169" s="6">
-        <v>43617</v>
-      </c>
-      <c r="D169" s="7">
-        <v>45078</v>
+        <v>44958</v>
+      </c>
+      <c r="D169" s="6">
+        <v>46419</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I169" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>181</v>
+        <v>350</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="C170" s="6">
-        <v>44677</v>
+        <v>44986</v>
       </c>
       <c r="D170" s="6">
-        <v>46138</v>
+        <v>46447</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G170" s="3" t="s">
         <v>12</v>
@@ -6547,66 +6578,222 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="C171" s="6">
-        <v>43941</v>
+        <v>45555</v>
       </c>
       <c r="D171" s="6">
-        <v>45402</v>
+        <v>47016</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>25</v>
+        <v>115</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>365</v>
+        <v>173</v>
       </c>
       <c r="C172" s="6">
-        <v>45821</v>
+        <v>45658</v>
       </c>
       <c r="D172" s="6">
-        <v>47282</v>
+        <v>47119</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F172" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C173" s="6">
+        <v>44621</v>
+      </c>
+      <c r="D173" s="6">
+        <v>46082</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G172" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="I172" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="G173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" s="6">
+        <v>45078</v>
+      </c>
+      <c r="D174" s="6">
+        <v>46539</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C175" s="6">
+        <v>43617</v>
+      </c>
+      <c r="D175" s="7">
+        <v>45078</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C176" s="6">
+        <v>44677</v>
+      </c>
+      <c r="D176" s="6">
+        <v>46138</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C177" s="6">
+        <v>43941</v>
+      </c>
+      <c r="D177" s="6">
+        <v>45402</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="6"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+      <c r="I178" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I172" xr:uid="{C3BE3939-ED8F-4C12-8744-EEF31595E9A6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I165">
-      <sortCondition ref="A1:A157"/>
+  <autoFilter ref="A1:I177" xr:uid="{C3BE3939-ED8F-4C12-8744-EEF31595E9A6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I174">
+      <sortCondition ref="A1:A172"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/full base.xlsx
+++ b/full base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JuanMeregone\Documents\datalaptops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77DE5EE-6FD3-45FD-A84C-AC62C062E918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F81E5A-F0C8-43DF-AB65-76954EB3B2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6C9A883-3F23-4BFD-A0A0-833FB6DF1CB8}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="375">
   <si>
     <t>User</t>
   </si>
@@ -266,9 +266,6 @@
     <t>5FXWBY3</t>
   </si>
   <si>
-    <t>no internet</t>
-  </si>
-  <si>
     <t>3H9VVH3</t>
   </si>
   <si>
@@ -686,12 +683,6 @@
     <t>BCY1J64</t>
   </si>
   <si>
-    <t>Tonya Craven</t>
-  </si>
-  <si>
-    <t>G8Y1J64</t>
-  </si>
-  <si>
     <t>Dizzale Tanner</t>
   </si>
   <si>
@@ -788,9 +779,6 @@
     <t>Pamela S</t>
   </si>
   <si>
-    <t>Rebeca</t>
-  </si>
-  <si>
     <t>Xiomara</t>
   </si>
   <si>
@@ -875,9 +863,6 @@
     <t>Daniela O</t>
   </si>
   <si>
-    <t>Angie H</t>
-  </si>
-  <si>
     <t xml:space="preserve">Silvia L </t>
   </si>
   <si>
@@ -1052,9 +1037,6 @@
     <t>Carly</t>
   </si>
   <si>
-    <t>Tamara</t>
-  </si>
-  <si>
     <t>Nicolle C</t>
   </si>
   <si>
@@ -1142,9 +1124,6 @@
     <t>D1LLN74</t>
   </si>
   <si>
-    <t>G8VKJL3</t>
-  </si>
-  <si>
     <t>CM3NKB4</t>
   </si>
   <si>
@@ -1172,10 +1151,19 @@
     <t>CFKWZT3</t>
   </si>
   <si>
-    <t>Ludmila Terceiro</t>
-  </si>
-  <si>
-    <t>Abril Ravecca</t>
+    <t> Abril Ravecca</t>
+  </si>
+  <si>
+    <t>Brianna H</t>
+  </si>
+  <si>
+    <t> Ludmila Terceiro</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>GVY2C24</t>
   </si>
 </sst>
 </file>
@@ -1632,10 +1620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE3939-ED8F-4C12-8744-EEF31595E9A6}">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E178" sqref="E178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1679,28 +1667,28 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>223</v>
+        <v>299</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6">
-        <v>43263</v>
-      </c>
-      <c r="D2" s="7">
-        <v>44724</v>
+        <v>45042</v>
+      </c>
+      <c r="D2" s="6">
+        <v>46503</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>14</v>
@@ -1708,16 +1696,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>224</v>
+        <v>177</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="C3" s="6">
-        <v>43859</v>
-      </c>
-      <c r="D3" s="7">
-        <v>45320</v>
+        <v>44829</v>
+      </c>
+      <c r="D3" s="6">
+        <v>46290</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -1729,7 +1717,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>14</v>
@@ -1737,22 +1725,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="C4" s="6">
-        <v>45359</v>
+        <v>45756</v>
       </c>
       <c r="D4" s="6">
-        <v>46820</v>
+        <v>47217</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
@@ -1765,23 +1753,23 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>226</v>
+      <c r="A5" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C5" s="6">
-        <v>44611</v>
+        <v>45820</v>
       </c>
       <c r="D5" s="6">
-        <v>46072</v>
+        <v>47281</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
@@ -1795,22 +1783,22 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>211</v>
       </c>
       <c r="C6" s="6">
-        <v>44719</v>
+        <v>45851</v>
       </c>
       <c r="D6" s="6">
-        <v>46180</v>
+        <v>47312</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
@@ -1824,16 +1812,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="C7" s="6">
-        <v>44282</v>
+        <v>45851</v>
       </c>
       <c r="D7" s="6">
-        <v>45743</v>
+        <v>47312</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -1853,28 +1841,28 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6">
-        <v>44994</v>
-      </c>
-      <c r="D8" s="6">
-        <v>46455</v>
+        <v>43859</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45320</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>14</v>
@@ -1882,22 +1870,22 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>27</v>
+        <v>227</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6">
-        <v>45491</v>
+        <v>44555</v>
       </c>
       <c r="D9" s="6">
-        <v>46952</v>
+        <v>46016</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>12</v>
@@ -1911,45 +1899,45 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6">
+        <v>45359</v>
+      </c>
+      <c r="D10" s="6">
+        <v>46820</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="6">
+      <c r="C11" s="6">
         <v>45013</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D11" s="6">
         <v>46474</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="C11" s="6">
-        <v>45820</v>
-      </c>
-      <c r="D11" s="6">
-        <v>47281</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -1969,10 +1957,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C12" s="6">
         <v>45616</v>
@@ -1990,7 +1978,7 @@
         <v>12</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>14</v>
@@ -1998,22 +1986,22 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>230</v>
+        <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6">
-        <v>44555</v>
+        <v>45491</v>
       </c>
       <c r="D13" s="6">
-        <v>46016</v>
+        <v>46952</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>12</v>
@@ -2027,22 +2015,22 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>203</v>
       </c>
       <c r="C14" s="6">
-        <v>44722</v>
+        <v>44611</v>
       </c>
       <c r="D14" s="6">
-        <v>46183</v>
+        <v>46072</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>12</v>
@@ -2056,16 +2044,16 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C15" s="6">
-        <v>44611</v>
+        <v>44282</v>
       </c>
       <c r="D15" s="6">
-        <v>46072</v>
+        <v>45743</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -2085,16 +2073,16 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6">
-        <v>45095</v>
+        <v>44994</v>
       </c>
       <c r="D16" s="6">
-        <v>46556</v>
+        <v>46455</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -2114,22 +2102,22 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>234</v>
+        <v>293</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="C17" s="6">
-        <v>44983</v>
+        <v>44984</v>
       </c>
       <c r="D17" s="6">
-        <v>46444</v>
+        <v>46445</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>12</v>
@@ -2143,22 +2131,22 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" s="6">
-        <v>44925</v>
+        <v>44722</v>
       </c>
       <c r="D18" s="6">
-        <v>46386</v>
+        <v>46183</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>12</v>
@@ -2172,22 +2160,22 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c r="C19" s="6">
-        <v>45756</v>
+        <v>45012</v>
       </c>
       <c r="D19" s="6">
-        <v>47217</v>
+        <v>46473</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>12</v>
@@ -2201,22 +2189,22 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>35</v>
+        <v>234</v>
       </c>
       <c r="C20" s="6">
-        <v>45013</v>
+        <v>45756</v>
       </c>
       <c r="D20" s="6">
-        <v>46474</v>
+        <v>47217</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>12</v>
@@ -2229,11 +2217,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
+      <c r="A21" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="6">
         <v>45491</v>
@@ -2258,17 +2246,17 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>378</v>
+      <c r="A22" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6">
-        <v>45491</v>
+        <v>45013</v>
       </c>
       <c r="D22" s="6">
-        <v>46952</v>
+        <v>46474</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
@@ -2288,22 +2276,22 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="C23" s="6">
-        <v>45527</v>
+        <v>45095</v>
       </c>
       <c r="D23" s="6">
-        <v>46988</v>
+        <v>46556</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>12</v>
@@ -2316,17 +2304,17 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="9" t="s">
-        <v>192</v>
+      <c r="A24" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>193</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6">
-        <v>45820</v>
+        <v>45491</v>
       </c>
       <c r="D24" s="6">
-        <v>47281</v>
+        <v>46952</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>10</v>
@@ -2346,10 +2334,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C25" s="6">
         <v>45527</v>
@@ -2375,28 +2363,28 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6">
-        <v>45447</v>
+        <v>44983</v>
       </c>
       <c r="D26" s="6">
-        <v>46908</v>
+        <v>46444</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>14</v>
@@ -2404,22 +2392,22 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C27" s="6">
-        <v>45042</v>
+        <v>44611</v>
       </c>
       <c r="D27" s="6">
-        <v>46503</v>
+        <v>46072</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>12</v>
@@ -2433,22 +2421,22 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C28" s="6">
-        <v>44958</v>
+        <v>44925</v>
       </c>
       <c r="D28" s="6">
-        <v>46419</v>
+        <v>46386</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>12</v>
@@ -2461,23 +2449,23 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>246</v>
+      <c r="A29" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="C29" s="6">
-        <v>44719</v>
+        <v>45820</v>
       </c>
       <c r="D29" s="6">
-        <v>46180</v>
+        <v>47281</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>12</v>
@@ -2491,22 +2479,22 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="C30" s="6">
-        <v>45064</v>
+        <v>45527</v>
       </c>
       <c r="D30" s="6">
-        <v>46525</v>
+        <v>46988</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>12</v>
@@ -2520,28 +2508,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="C31" s="6">
-        <v>44994</v>
+        <v>45447</v>
       </c>
       <c r="D31" s="6">
-        <v>46455</v>
+        <v>46908</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>14</v>
@@ -2549,22 +2537,22 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C32" s="6">
-        <v>44571</v>
+        <v>44555</v>
       </c>
       <c r="D32" s="6">
-        <v>46032</v>
+        <v>46016</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>12</v>
@@ -2581,25 +2569,25 @@
         <v>250</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="C33" s="6">
-        <v>43573</v>
-      </c>
-      <c r="D33" s="7">
-        <v>45034</v>
+        <v>44786</v>
+      </c>
+      <c r="D33" s="6">
+        <v>46247</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>14</v>
@@ -2607,22 +2595,22 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="C34" s="6">
-        <v>44555</v>
+        <v>45851</v>
       </c>
       <c r="D34" s="6">
-        <v>46016</v>
+        <v>47312</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>12</v>
@@ -2635,17 +2623,17 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>52</v>
+      <c r="A35" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="C35" s="6">
-        <v>45501</v>
+        <v>45491</v>
       </c>
       <c r="D35" s="6">
-        <v>46962</v>
+        <v>46952</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>10</v>
@@ -2665,16 +2653,16 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>252</v>
+        <v>52</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>53</v>
+        <v>159</v>
       </c>
       <c r="C36" s="6">
-        <v>44786</v>
+        <v>45501</v>
       </c>
       <c r="D36" s="6">
-        <v>46247</v>
+        <v>46962</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>10</v>
@@ -2693,23 +2681,23 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>54</v>
+      <c r="A37" s="3" t="s">
+        <v>241</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C37" s="6">
-        <v>45491</v>
+        <v>45042</v>
       </c>
       <c r="D37" s="6">
-        <v>46952</v>
+        <v>46503</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>12</v>
@@ -2723,22 +2711,22 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6">
-        <v>45248</v>
+        <v>44958</v>
       </c>
       <c r="D38" s="6">
-        <v>46709</v>
+        <v>46419</v>
       </c>
       <c r="E38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>12</v>
@@ -2752,45 +2740,45 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>254</v>
+        <v>359</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>95</v>
+        <v>360</v>
       </c>
       <c r="C39" s="6">
+        <v>45756</v>
+      </c>
+      <c r="D39" s="6">
+        <v>47217</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="6">
         <v>44786</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D40" s="6">
         <v>46247</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="6">
-        <v>45756</v>
-      </c>
-      <c r="D40" s="6">
-        <v>47217</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
@@ -2810,22 +2798,22 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c r="C41" s="6">
-        <v>45851</v>
+        <v>45248</v>
       </c>
       <c r="D41" s="6">
-        <v>47312</v>
+        <v>46709</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>12</v>
@@ -2839,10 +2827,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C42" s="6">
         <v>45013</v>
@@ -2868,22 +2856,22 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>365</v>
+        <v>243</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>366</v>
+        <v>44</v>
       </c>
       <c r="C43" s="6">
-        <v>45756</v>
+        <v>44719</v>
       </c>
       <c r="D43" s="6">
-        <v>47217</v>
+        <v>46180</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>12</v>
@@ -2897,22 +2885,22 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>184</v>
+        <v>45</v>
       </c>
       <c r="C44" s="6">
-        <v>45447</v>
-      </c>
-      <c r="D44" s="10">
-        <v>46908</v>
+        <v>45064</v>
+      </c>
+      <c r="D44" s="6">
+        <v>46525</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>12</v>
@@ -2926,22 +2914,22 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C45" s="6">
-        <v>44817</v>
+        <v>44994</v>
       </c>
       <c r="D45" s="6">
-        <v>46278</v>
+        <v>46455</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>12</v>
@@ -2955,22 +2943,22 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C46" s="6">
-        <v>44282</v>
+        <v>44587</v>
       </c>
       <c r="D46" s="6">
-        <v>45743</v>
+        <v>46048</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>12</v>
@@ -2984,16 +2972,16 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C47" s="6">
-        <v>45012</v>
-      </c>
-      <c r="D47" s="6">
-        <v>46473</v>
+        <v>43573</v>
+      </c>
+      <c r="D47" s="7">
+        <v>45034</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>10</v>
@@ -3005,30 +2993,30 @@
         <v>12</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>259</v>
+      <c r="A48" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="C48" s="6">
-        <v>44830</v>
+        <v>45756</v>
       </c>
       <c r="D48" s="6">
-        <v>46291</v>
+        <v>47217</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>12</v>
@@ -3042,22 +3030,22 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>183</v>
       </c>
       <c r="C49" s="6">
-        <v>44768</v>
-      </c>
-      <c r="D49" s="6">
-        <v>46229</v>
+        <v>45447</v>
+      </c>
+      <c r="D49" s="10">
+        <v>46908</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>12</v>
@@ -3074,13 +3062,13 @@
         <v>261</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C50" s="6">
-        <v>45012</v>
+        <v>44372</v>
       </c>
       <c r="D50" s="6">
-        <v>46473</v>
+        <v>45833</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>10</v>
@@ -3100,22 +3088,22 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="6">
-        <v>45043</v>
+        <v>45012</v>
       </c>
       <c r="D51" s="6">
-        <v>46504</v>
+        <v>46473</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>12</v>
@@ -3129,16 +3117,16 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C52" s="6">
-        <v>45073</v>
+        <v>44282</v>
       </c>
       <c r="D52" s="6">
-        <v>46534</v>
+        <v>45743</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>10</v>
@@ -3158,28 +3146,28 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C53" s="6">
-        <v>44587</v>
+        <v>45041</v>
       </c>
       <c r="D53" s="6">
-        <v>46048</v>
+        <v>46502</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="I53" s="3" t="s">
         <v>14</v>
@@ -3187,16 +3175,16 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C54" s="6">
-        <v>44372</v>
+        <v>45012</v>
       </c>
       <c r="D54" s="6">
-        <v>45833</v>
+        <v>46473</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
@@ -3216,22 +3204,22 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C55" s="6">
-        <v>45012</v>
+        <v>44830</v>
       </c>
       <c r="D55" s="6">
-        <v>46473</v>
+        <v>46291</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>12</v>
@@ -3273,23 +3261,23 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
-        <v>68</v>
+      <c r="A57" s="3" t="s">
+        <v>256</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C57" s="6">
-        <v>45528</v>
+        <v>44768</v>
       </c>
       <c r="D57" s="6">
-        <v>46989</v>
+        <v>46229</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>12</v>
@@ -3303,51 +3291,51 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>267</v>
+        <v>185</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="C58" s="6">
-        <v>45041</v>
+        <v>45756</v>
       </c>
       <c r="D58" s="6">
-        <v>46502</v>
+        <v>47217</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>186</v>
+      <c r="A59" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="C59" s="6">
-        <v>45756</v>
+        <v>45528</v>
       </c>
       <c r="D59" s="6">
-        <v>47217</v>
+        <v>46989</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>12</v>
@@ -3361,22 +3349,22 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="C60" s="6">
-        <v>45527</v>
+        <v>45043</v>
       </c>
       <c r="D60" s="6">
-        <v>46988</v>
+        <v>46504</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>12</v>
@@ -3390,22 +3378,22 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>188</v>
+        <v>259</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C61" s="6">
-        <v>45756</v>
+        <v>45073</v>
       </c>
       <c r="D61" s="6">
-        <v>47217</v>
+        <v>46534</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>12</v>
@@ -3419,16 +3407,16 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>356</v>
+        <v>188</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="C62" s="6">
-        <v>45821</v>
+        <v>45756</v>
       </c>
       <c r="D62" s="6">
-        <v>47282</v>
+        <v>47217</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
@@ -3440,7 +3428,7 @@
         <v>12</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>357</v>
+        <v>18</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>14</v>
@@ -3448,16 +3436,16 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>269</v>
+        <v>349</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>206</v>
+        <v>350</v>
       </c>
       <c r="C63" s="6">
-        <v>43792</v>
-      </c>
-      <c r="D63" s="7">
-        <v>45253</v>
+        <v>45821</v>
+      </c>
+      <c r="D63" s="6">
+        <v>47282</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
@@ -3469,7 +3457,7 @@
         <v>12</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>13</v>
+        <v>351</v>
       </c>
       <c r="I63" s="3" t="s">
         <v>14</v>
@@ -3477,10 +3465,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C64" s="6">
         <v>45012</v>
@@ -3506,22 +3494,22 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="C65" s="6">
-        <v>45012</v>
+        <v>45527</v>
       </c>
       <c r="D65" s="6">
-        <v>46473</v>
+        <v>46988</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>12</v>
@@ -3534,17 +3522,17 @@
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>272</v>
+      <c r="A66" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>73</v>
+        <v>198</v>
       </c>
       <c r="C66" s="6">
-        <v>44799</v>
+        <v>45820</v>
       </c>
       <c r="D66" s="6">
-        <v>46260</v>
+        <v>47281</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>10</v>
@@ -3564,16 +3552,16 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="C67" s="6">
-        <v>44861</v>
-      </c>
-      <c r="D67" s="6">
-        <v>46322</v>
+        <v>43792</v>
+      </c>
+      <c r="D67" s="7">
+        <v>45253</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>10</v>
@@ -3582,10 +3570,10 @@
         <v>11</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>14</v>
@@ -3593,16 +3581,16 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="C68" s="6">
-        <v>44312</v>
+        <v>45043</v>
       </c>
       <c r="D68" s="6">
-        <v>45773</v>
+        <v>46504</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>10</v>
@@ -3614,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>243</v>
+        <v>18</v>
       </c>
       <c r="I68" s="3" t="s">
         <v>14</v>
@@ -3622,16 +3610,16 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C69" s="6">
-        <v>45043</v>
+        <v>44817</v>
       </c>
       <c r="D69" s="6">
-        <v>46504</v>
+        <v>46278</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>10</v>
@@ -3651,16 +3639,16 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="C70" s="6">
-        <v>45012</v>
+        <v>44953</v>
       </c>
       <c r="D70" s="6">
-        <v>46473</v>
+        <v>46414</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>10</v>
@@ -3679,23 +3667,23 @@
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71" s="8" t="s">
-        <v>79</v>
+      <c r="A71" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="C71" s="6">
-        <v>45501</v>
+        <v>44505</v>
       </c>
       <c r="D71" s="6">
-        <v>46962</v>
+        <v>45966</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>12</v>
@@ -3704,27 +3692,27 @@
         <v>18</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>276</v>
+        <v>371</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C72" s="6">
-        <v>44953</v>
+        <v>44829</v>
       </c>
       <c r="D72" s="6">
-        <v>46414</v>
+        <v>46290</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>12</v>
@@ -3733,27 +3721,27 @@
         <v>18</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="C73" s="6">
-        <v>44505</v>
+        <v>45012</v>
       </c>
       <c r="D73" s="6">
-        <v>45966</v>
+        <v>46473</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>12</v>
@@ -3762,27 +3750,27 @@
         <v>18</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>108</v>
+        <v>72</v>
       </c>
       <c r="C74" s="6">
-        <v>44830</v>
+        <v>45012</v>
       </c>
       <c r="D74" s="6">
-        <v>46291</v>
+        <v>46473</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>12</v>
@@ -3795,17 +3783,17 @@
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>194</v>
+      <c r="A75" s="3" t="s">
+        <v>268</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="C75" s="6">
-        <v>45820</v>
+        <v>44799</v>
       </c>
       <c r="D75" s="6">
-        <v>47281</v>
+        <v>46260</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>10</v>
@@ -3825,22 +3813,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="C76" s="6">
-        <v>44932</v>
+        <v>44861</v>
       </c>
       <c r="D76" s="6">
-        <v>46393</v>
+        <v>46322</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>12</v>
@@ -3854,10 +3842,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C77" s="6">
         <v>45012</v>
@@ -3869,7 +3857,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>12</v>
@@ -3882,23 +3870,23 @@
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>281</v>
+      <c r="A78" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="C78" s="6">
-        <v>45851</v>
+        <v>45501</v>
       </c>
       <c r="D78" s="6">
-        <v>47312</v>
+        <v>46962</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>12</v>
@@ -3911,23 +3899,23 @@
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>282</v>
+      <c r="A79" s="9" t="s">
+        <v>193</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>83</v>
+        <v>194</v>
       </c>
       <c r="C79" s="6">
-        <v>45012</v>
+        <v>45820</v>
       </c>
       <c r="D79" s="6">
-        <v>46473</v>
+        <v>47281</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>12</v>
@@ -3941,22 +3929,22 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6">
-        <v>44542</v>
+        <v>44984</v>
       </c>
       <c r="D80" s="6">
-        <v>46003</v>
+        <v>46445</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>12</v>
@@ -3965,21 +3953,21 @@
         <v>18</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C81" s="6">
-        <v>44525</v>
+        <v>44921</v>
       </c>
       <c r="D81" s="6">
-        <v>45986</v>
+        <v>46382</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>10</v>
@@ -3994,27 +3982,27 @@
         <v>18</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>285</v>
+        <v>224</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C82" s="6">
-        <v>45043</v>
+        <v>44719</v>
       </c>
       <c r="D82" s="6">
-        <v>46504</v>
+        <v>46180</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>12</v>
@@ -4028,22 +4016,22 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>207</v>
+        <v>93</v>
       </c>
       <c r="C83" s="6">
-        <v>45012</v>
+        <v>45226</v>
       </c>
       <c r="D83" s="6">
-        <v>46473</v>
+        <v>46687</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>12</v>
@@ -4057,22 +4045,22 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C84" s="6">
-        <v>43971</v>
+        <v>45012</v>
       </c>
       <c r="D84" s="6">
-        <v>45432</v>
+        <v>46473</v>
       </c>
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>12</v>
@@ -4086,22 +4074,22 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>288</v>
+        <v>104</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="C85" s="6">
-        <v>45851</v>
+        <v>45501</v>
       </c>
       <c r="D85" s="6">
-        <v>47312</v>
+        <v>46962</v>
       </c>
       <c r="E85" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>12</v>
@@ -4115,22 +4103,22 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C86" s="6">
-        <v>45012</v>
+        <v>44921</v>
       </c>
       <c r="D86" s="6">
-        <v>46473</v>
+        <v>46382</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>12</v>
@@ -4144,22 +4132,22 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C87" s="6">
-        <v>44830</v>
+        <v>45073</v>
       </c>
       <c r="D87" s="6">
-        <v>46291</v>
+        <v>46534</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>12</v>
@@ -4173,10 +4161,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C88" s="6">
         <v>44921</v>
@@ -4188,7 +4176,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>12</v>
@@ -4202,22 +4190,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="C89" s="6">
-        <v>45501</v>
+        <v>44677</v>
       </c>
       <c r="D89" s="6">
-        <v>46962</v>
+        <v>46138</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>12</v>
@@ -4231,22 +4219,22 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C90" s="6">
-        <v>45012</v>
+        <v>45104</v>
       </c>
       <c r="D90" s="6">
-        <v>46473</v>
+        <v>46565</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>12</v>
@@ -4259,17 +4247,17 @@
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>294</v>
+      <c r="A91" s="9" t="s">
+        <v>199</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="C91" s="6">
-        <v>45012</v>
+        <v>45820</v>
       </c>
       <c r="D91" s="6">
-        <v>46473</v>
+        <v>47281</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>10</v>
@@ -4289,22 +4277,22 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C92" s="6">
-        <v>44925</v>
+        <v>44921</v>
       </c>
       <c r="D92" s="6">
-        <v>46386</v>
+        <v>46382</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>12</v>
@@ -4318,22 +4306,22 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="C93" s="6">
-        <v>44984</v>
+        <v>44932</v>
       </c>
       <c r="D93" s="6">
-        <v>46445</v>
+        <v>46393</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>12</v>
@@ -4347,22 +4335,22 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="C94" s="6">
-        <v>45226</v>
+        <v>45012</v>
       </c>
       <c r="D94" s="6">
-        <v>46687</v>
+        <v>46473</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>12</v>
@@ -4376,22 +4364,22 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C95" s="6">
-        <v>44984</v>
+        <v>45012</v>
       </c>
       <c r="D95" s="6">
-        <v>46445</v>
+        <v>46473</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>12</v>
@@ -4405,22 +4393,22 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>97</v>
+        <v>352</v>
       </c>
       <c r="C96" s="6">
-        <v>44921</v>
+        <v>45851</v>
       </c>
       <c r="D96" s="6">
-        <v>46382</v>
+        <v>47312</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>12</v>
@@ -4434,22 +4422,22 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
-        <v>98</v>
+        <v>277</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C97" s="6">
-        <v>45073</v>
+        <v>45012</v>
       </c>
       <c r="D97" s="6">
-        <v>46534</v>
+        <v>46473</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>12</v>
@@ -4463,22 +4451,22 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C98" s="6">
-        <v>45104</v>
+        <v>44542</v>
       </c>
       <c r="D98" s="6">
-        <v>46565</v>
+        <v>46003</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>12</v>
@@ -4487,27 +4475,27 @@
         <v>18</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C99" s="6">
-        <v>44921</v>
+        <v>44525</v>
       </c>
       <c r="D99" s="6">
-        <v>46382</v>
+        <v>45986</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>12</v>
@@ -4516,27 +4504,27 @@
         <v>18</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>104</v>
+        <v>290</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="C100" s="6">
-        <v>44921</v>
+        <v>44925</v>
       </c>
       <c r="D100" s="6">
-        <v>46382</v>
+        <v>46386</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>12</v>
@@ -4550,22 +4538,22 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>105</v>
+        <v>280</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C101" s="6">
-        <v>45501</v>
+        <v>45043</v>
       </c>
       <c r="D101" s="6">
-        <v>46962</v>
+        <v>46504</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>12</v>
@@ -4579,22 +4567,22 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="C102" s="6">
-        <v>44677</v>
+        <v>45012</v>
       </c>
       <c r="D102" s="6">
-        <v>46138</v>
+        <v>46473</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>12</v>
@@ -4608,22 +4596,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>208</v>
+        <v>24</v>
       </c>
       <c r="C103" s="6">
-        <v>45012</v>
+        <v>44921</v>
       </c>
       <c r="D103" s="6">
-        <v>46473</v>
+        <v>46382</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>12</v>
@@ -4637,22 +4625,22 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="C104" s="6">
-        <v>44921</v>
+        <v>43971</v>
       </c>
       <c r="D104" s="6">
-        <v>46382</v>
+        <v>45432</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G104" s="3" t="s">
         <v>12</v>
@@ -4665,23 +4653,23 @@
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A105" s="9" t="s">
-        <v>200</v>
+      <c r="A105" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>201</v>
+        <v>361</v>
       </c>
       <c r="C105" s="6">
-        <v>45820</v>
+        <v>45851</v>
       </c>
       <c r="D105" s="6">
-        <v>47281</v>
+        <v>47312</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>12</v>
@@ -4695,22 +4683,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="C106" s="6">
-        <v>45042</v>
+        <v>45012</v>
       </c>
       <c r="D106" s="6">
-        <v>46503</v>
+        <v>46473</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>12</v>
@@ -4724,22 +4712,22 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
-        <v>178</v>
+        <v>288</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>132</v>
+        <v>89</v>
       </c>
       <c r="C107" s="6">
-        <v>44829</v>
+        <v>45012</v>
       </c>
       <c r="D107" s="6">
-        <v>46290</v>
+        <v>46473</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>12</v>
@@ -4753,22 +4741,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="C108" s="6">
-        <v>45756</v>
+        <v>45501</v>
       </c>
       <c r="D108" s="6">
-        <v>47217</v>
+        <v>46962</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>12</v>
@@ -4781,23 +4769,23 @@
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A109" s="9" t="s">
-        <v>190</v>
+      <c r="A109" s="3" t="s">
+        <v>285</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="C109" s="6">
-        <v>45820</v>
+        <v>44830</v>
       </c>
       <c r="D109" s="6">
-        <v>47281</v>
+        <v>46291</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>12</v>
@@ -4811,22 +4799,22 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
-        <v>211</v>
+        <v>343</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="C110" s="6">
-        <v>45851</v>
+        <v>44958</v>
       </c>
       <c r="D110" s="6">
-        <v>47312</v>
+        <v>46419</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>12</v>
@@ -4840,22 +4828,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
-        <v>215</v>
+        <v>314</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>216</v>
+        <v>147</v>
       </c>
       <c r="C111" s="6">
-        <v>45851</v>
+        <v>45012</v>
       </c>
       <c r="D111" s="6">
-        <v>47312</v>
+        <v>46473</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>12</v>
@@ -4868,23 +4856,23 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>217</v>
+      <c r="A112" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>218</v>
+        <v>156</v>
       </c>
       <c r="C112" s="6">
-        <v>45851</v>
+        <v>45012</v>
       </c>
       <c r="D112" s="6">
-        <v>47312</v>
+        <v>46473</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>12</v>
@@ -4898,22 +4886,22 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="C113" s="6">
-        <v>45012</v>
+        <v>44921</v>
       </c>
       <c r="D113" s="6">
-        <v>46473</v>
+        <v>46382</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>12</v>
@@ -4927,22 +4915,22 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C114" s="6">
-        <v>44830</v>
+        <v>45226</v>
       </c>
       <c r="D114" s="6">
-        <v>46291</v>
+        <v>46687</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="G114" s="3" t="s">
         <v>12</v>
@@ -4956,10 +4944,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C115" s="6">
         <v>44921</v>
@@ -4971,7 +4959,7 @@
         <v>10</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="G115" s="3" t="s">
         <v>12</v>
@@ -4985,16 +4973,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
-        <v>322</v>
+        <v>125</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C116" s="6">
-        <v>44830</v>
+        <v>44986</v>
       </c>
       <c r="D116" s="6">
-        <v>46291</v>
+        <v>46447</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>10</v>
@@ -5014,10 +5002,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C117" s="6">
         <v>44953</v>
@@ -5029,7 +5017,7 @@
         <v>10</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>12</v>
@@ -5043,16 +5031,16 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C118" s="6">
-        <v>45226</v>
+        <v>44986</v>
       </c>
       <c r="D118" s="6">
-        <v>46687</v>
+        <v>46447</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>10</v>
@@ -5072,22 +5060,22 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C119" s="6">
-        <v>44921</v>
+        <v>44958</v>
       </c>
       <c r="D119" s="6">
-        <v>46382</v>
+        <v>46419</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>12</v>
@@ -5100,17 +5088,17 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>309</v>
+      <c r="A120" s="8" t="s">
+        <v>157</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="C120" s="6">
-        <v>45226</v>
+        <v>45012</v>
       </c>
       <c r="D120" s="6">
-        <v>46687</v>
+        <v>46473</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>10</v>
@@ -5129,23 +5117,23 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A121" s="8" t="s">
-        <v>161</v>
+      <c r="A121" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="C121" s="6">
-        <v>45532</v>
+        <v>45257</v>
       </c>
       <c r="D121" s="6">
-        <v>46993</v>
+        <v>46718</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="G121" s="3" t="s">
         <v>12</v>
@@ -5159,16 +5147,16 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
-        <v>126</v>
+        <v>325</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C122" s="6">
-        <v>44986</v>
+        <v>45012</v>
       </c>
       <c r="D122" s="6">
-        <v>46447</v>
+        <v>46473</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>10</v>
@@ -5188,16 +5176,16 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>110</v>
+        <v>142</v>
       </c>
       <c r="C123" s="6">
-        <v>44953</v>
+        <v>45226</v>
       </c>
       <c r="D123" s="6">
-        <v>46414</v>
+        <v>46687</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>10</v>
@@ -5216,17 +5204,17 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>122</v>
+      <c r="A124" s="8" t="s">
+        <v>372</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>123</v>
+        <v>369</v>
       </c>
       <c r="C124" s="6">
-        <v>44986</v>
+        <v>44282</v>
       </c>
       <c r="D124" s="6">
-        <v>46447</v>
+        <v>45743</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>10</v>
@@ -5238,24 +5226,24 @@
         <v>12</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
       <c r="I124" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>310</v>
+      <c r="A125" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="C125" s="6">
-        <v>45257</v>
+        <v>45532</v>
       </c>
       <c r="D125" s="6">
-        <v>46718</v>
+        <v>46993</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>10</v>
@@ -5275,16 +5263,16 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C126" s="6">
-        <v>45073</v>
+        <v>44953</v>
       </c>
       <c r="D126" s="6">
-        <v>46534</v>
+        <v>46414</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>10</v>
@@ -5304,16 +5292,16 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="C127" s="6">
-        <v>44958</v>
+        <v>45379</v>
       </c>
       <c r="D127" s="6">
-        <v>46419</v>
+        <v>46840</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>10</v>
@@ -5332,17 +5320,17 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
-        <v>158</v>
+      <c r="A128" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C128" s="6">
-        <v>45012</v>
+        <v>45257</v>
       </c>
       <c r="D128" s="6">
-        <v>46473</v>
+        <v>46718</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>10</v>
@@ -5362,16 +5350,16 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C129" s="6">
-        <v>44921</v>
+        <v>45257</v>
       </c>
       <c r="D129" s="6">
-        <v>46382</v>
+        <v>46718</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>10</v>
@@ -5391,22 +5379,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C130" s="6">
-        <v>45226</v>
+        <v>44799</v>
       </c>
       <c r="D130" s="6">
-        <v>46687</v>
+        <v>46260</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>12</v>
@@ -5420,22 +5408,22 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C131" s="6">
-        <v>45257</v>
+        <v>44830</v>
       </c>
       <c r="D131" s="6">
-        <v>46718</v>
+        <v>46291</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="G131" s="3" t="s">
         <v>12</v>
@@ -5449,22 +5437,22 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C132" s="6">
-        <v>45012</v>
+        <v>44830</v>
       </c>
       <c r="D132" s="6">
-        <v>46473</v>
+        <v>46291</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="G132" s="3" t="s">
         <v>12</v>
@@ -5478,22 +5466,22 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C133" s="6">
-        <v>45012</v>
+        <v>44953</v>
       </c>
       <c r="D133" s="6">
-        <v>46473</v>
+        <v>46414</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G133" s="3" t="s">
         <v>12</v>
@@ -5507,10 +5495,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C134" s="6">
         <v>45226</v>
@@ -5535,75 +5523,75 @@
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A135" s="3" t="s">
-        <v>315</v>
+      <c r="A135" s="8" t="s">
+        <v>160</v>
       </c>
       <c r="B135" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C135" s="6">
+        <v>45532</v>
+      </c>
+      <c r="D135" s="6">
+        <v>46993</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C136" s="6">
+        <v>44921</v>
+      </c>
+      <c r="D136" s="6">
+        <v>46382</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C135" s="6">
-        <v>45257</v>
-      </c>
-      <c r="D135" s="6">
-        <v>46718</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A136" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="C136" s="6">
-        <v>44282</v>
-      </c>
-      <c r="D136" s="6">
-        <v>45743</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I136" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A137" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="C137" s="6">
-        <v>45532</v>
+        <v>44587</v>
       </c>
       <c r="D137" s="6">
-        <v>46993</v>
+        <v>46048</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>10</v>
@@ -5623,10 +5611,10 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>118</v>
+        <v>145</v>
       </c>
       <c r="C138" s="6">
         <v>44953</v>
@@ -5652,16 +5640,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C139" s="6">
-        <v>44587</v>
+        <v>45104</v>
       </c>
       <c r="D139" s="6">
-        <v>46048</v>
+        <v>46565</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>10</v>
@@ -5681,22 +5669,22 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>111</v>
+        <v>169</v>
       </c>
       <c r="C140" s="6">
-        <v>44799</v>
+        <v>44713</v>
       </c>
       <c r="D140" s="6">
-        <v>46260</v>
+        <v>46174</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G140" s="3" t="s">
         <v>12</v>
@@ -5710,16 +5698,16 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="C141" s="6">
-        <v>44953</v>
+        <v>45043</v>
       </c>
       <c r="D141" s="6">
-        <v>46414</v>
+        <v>46504</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>10</v>
@@ -5739,16 +5727,16 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="C142" s="6">
-        <v>45043</v>
+        <v>45257</v>
       </c>
       <c r="D142" s="6">
-        <v>46504</v>
+        <v>46718</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>10</v>
@@ -5768,22 +5756,22 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="C143" s="6">
-        <v>45104</v>
+        <v>45226</v>
       </c>
       <c r="D143" s="6">
-        <v>46565</v>
+        <v>46687</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G143" s="3" t="s">
         <v>12</v>
@@ -5797,28 +5785,28 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
-        <v>318</v>
+        <v>220</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>147</v>
+        <v>9</v>
       </c>
       <c r="C144" s="6">
-        <v>45257</v>
-      </c>
-      <c r="D144" s="6">
-        <v>46718</v>
+        <v>43263</v>
+      </c>
+      <c r="D144" s="7">
+        <v>44724</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G144" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I144" s="3" t="s">
         <v>14</v>
@@ -5826,16 +5814,16 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C145" s="6">
-        <v>45379</v>
+        <v>45073</v>
       </c>
       <c r="D145" s="6">
-        <v>46840</v>
+        <v>46534</v>
       </c>
       <c r="E145" s="3" t="s">
         <v>10</v>
@@ -5854,23 +5842,23 @@
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
-        <v>156</v>
+      <c r="A146" s="3" t="s">
+        <v>328</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C146" s="6">
-        <v>45012</v>
+        <v>45226</v>
       </c>
       <c r="D146" s="6">
-        <v>46473</v>
+        <v>46687</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G146" s="3" t="s">
         <v>12</v>
@@ -5884,22 +5872,22 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>163</v>
+        <v>216</v>
       </c>
       <c r="C147" s="6">
-        <v>45226</v>
+        <v>44983</v>
       </c>
       <c r="D147" s="6">
-        <v>46687</v>
+        <v>46444</v>
       </c>
       <c r="E147" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>12</v>
@@ -5913,22 +5901,22 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="C148" s="6">
-        <v>44983</v>
+        <v>44830</v>
       </c>
       <c r="D148" s="6">
-        <v>46444</v>
+        <v>46291</v>
       </c>
       <c r="E148" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>12</v>
@@ -5942,22 +5930,22 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C149" s="6">
-        <v>45043</v>
+        <v>45012</v>
       </c>
       <c r="D149" s="6">
-        <v>46504</v>
+        <v>46473</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G149" s="3" t="s">
         <v>12</v>
@@ -5971,22 +5959,22 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C150" s="6">
-        <v>45012</v>
+        <v>45043</v>
       </c>
       <c r="D150" s="6">
-        <v>46473</v>
+        <v>46504</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>12</v>
@@ -6000,22 +5988,22 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="C151" s="6">
-        <v>45043</v>
+        <v>45616</v>
       </c>
       <c r="D151" s="6">
-        <v>46504</v>
+        <v>47077</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G151" s="3" t="s">
         <v>12</v>
@@ -6029,22 +6017,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>338</v>
+        <v>271</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C152" s="6">
-        <v>44830</v>
+        <v>45043</v>
       </c>
       <c r="D152" s="6">
-        <v>46291</v>
+        <v>46504</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="G152" s="3" t="s">
         <v>12</v>
@@ -6058,7 +6046,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>43</v>
@@ -6087,22 +6075,22 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="C154" s="6">
-        <v>45616</v>
+        <v>44986</v>
       </c>
       <c r="D154" s="6">
-        <v>47077</v>
+        <v>46447</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G154" s="3" t="s">
         <v>12</v>
@@ -6116,10 +6104,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C155" s="6">
         <v>43870</v>
@@ -6145,16 +6133,16 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>125</v>
+        <v>356</v>
       </c>
       <c r="C156" s="6">
-        <v>44986</v>
+        <v>44527</v>
       </c>
       <c r="D156" s="6">
-        <v>46447</v>
+        <v>45988</v>
       </c>
       <c r="E156" s="3" t="s">
         <v>10</v>
@@ -6174,10 +6162,10 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C157" s="6">
         <v>45756</v>
@@ -6201,16 +6189,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C158" s="6">
-        <v>44527</v>
+        <v>45603</v>
       </c>
       <c r="D158" s="6">
-        <v>45988</v>
+        <v>47064</v>
       </c>
       <c r="E158" s="3" t="s">
         <v>10</v>
@@ -6230,22 +6218,22 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C159" s="6">
-        <v>44958</v>
+        <v>45042</v>
       </c>
       <c r="D159" s="6">
-        <v>46419</v>
+        <v>46503</v>
       </c>
       <c r="E159" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G159" s="3" t="s">
         <v>12</v>
@@ -6259,22 +6247,22 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C160" s="6">
-        <v>45603</v>
+        <v>44958</v>
       </c>
       <c r="D160" s="6">
-        <v>47064</v>
+        <v>46419</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G160" s="3" t="s">
         <v>12</v>
@@ -6288,22 +6276,22 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="C161" s="6">
-        <v>45042</v>
+        <v>45530</v>
       </c>
       <c r="D161" s="6">
-        <v>46503</v>
+        <v>46991</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G161" s="3" t="s">
         <v>12</v>
@@ -6317,16 +6305,16 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="C162" s="6">
-        <v>45530</v>
-      </c>
-      <c r="D162" s="6">
-        <v>46991</v>
+        <v>43862</v>
+      </c>
+      <c r="D162" s="7">
+        <v>45323</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>10</v>
@@ -6338,24 +6326,24 @@
         <v>12</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I162" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="C163" s="6">
-        <v>43862</v>
-      </c>
-      <c r="D163" s="7">
-        <v>45323</v>
+        <v>45616</v>
+      </c>
+      <c r="D163" s="6">
+        <v>47077</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>10</v>
@@ -6367,18 +6355,18 @@
         <v>12</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I163" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C164" s="6">
         <v>43617</v>
@@ -6404,22 +6392,22 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="C165" s="6">
-        <v>44713</v>
+        <v>45078</v>
       </c>
       <c r="D165" s="6">
-        <v>46174</v>
+        <v>46539</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G165" s="3" t="s">
         <v>12</v>
@@ -6433,28 +6421,28 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C166" s="6">
-        <v>45616</v>
+        <v>44958</v>
       </c>
       <c r="D166" s="6">
-        <v>47077</v>
+        <v>46419</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I166" s="3" t="s">
         <v>14</v>
@@ -6462,16 +6450,16 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>113</v>
+        <v>344</v>
+      </c>
+      <c r="B167" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="C167" s="6">
-        <v>45078</v>
+        <v>44986</v>
       </c>
       <c r="D167" s="6">
-        <v>46539</v>
+        <v>46447</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>10</v>
@@ -6494,19 +6482,19 @@
         <v>348</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C168" s="6">
-        <v>44958</v>
+        <v>44677</v>
       </c>
       <c r="D168" s="6">
-        <v>46419</v>
+        <v>46138</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G168" s="3" t="s">
         <v>12</v>
@@ -6520,22 +6508,22 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
-        <v>349</v>
+        <v>181</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C169" s="6">
-        <v>44958</v>
+        <v>45555</v>
       </c>
       <c r="D169" s="6">
-        <v>46419</v>
+        <v>47016</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>12</v>
@@ -6549,16 +6537,16 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>101</v>
+        <v>345</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C170" s="6">
-        <v>44986</v>
+        <v>45658</v>
       </c>
       <c r="D170" s="6">
-        <v>46447</v>
+        <v>47119</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>10</v>
@@ -6578,22 +6566,22 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
-        <v>182</v>
+        <v>346</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C171" s="6">
-        <v>45555</v>
+        <v>45078</v>
       </c>
       <c r="D171" s="6">
-        <v>47016</v>
+        <v>46539</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="G171" s="3" t="s">
         <v>12</v>
@@ -6607,39 +6595,39 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C172" s="6">
-        <v>45658</v>
-      </c>
-      <c r="D172" s="6">
-        <v>47119</v>
+        <v>43617</v>
+      </c>
+      <c r="D172" s="7">
+        <v>45078</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G172" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I172" s="3" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C173" s="6">
         <v>44621</v>
@@ -6665,135 +6653,88 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
-        <v>352</v>
+        <v>218</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
       <c r="C174" s="6">
-        <v>45078</v>
+        <v>43941</v>
       </c>
       <c r="D174" s="6">
-        <v>46539</v>
+        <v>45402</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I174" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>175</v>
+        <v>374</v>
       </c>
       <c r="C175" s="6">
-        <v>43617</v>
-      </c>
-      <c r="D175" s="7">
-        <v>45078</v>
+        <v>45047</v>
+      </c>
+      <c r="D175" s="6">
+        <v>46508</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I175" s="3" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A176" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C176" s="6">
-        <v>44677</v>
-      </c>
-      <c r="D176" s="6">
-        <v>46138</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I176" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="6"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
+      <c r="I176" s="8"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A177" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C177" s="6">
-        <v>43941</v>
-      </c>
-      <c r="D177" s="6">
-        <v>45402</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I177" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="6"/>
+      <c r="D177" s="6"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+      <c r="I177" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I177" xr:uid="{C3BE3939-ED8F-4C12-8744-EEF31595E9A6}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I174">
-      <sortCondition ref="A1:A172"/>
+  <autoFilter ref="A1:I176" xr:uid="{C3BE3939-ED8F-4C12-8744-EEF31595E9A6}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I173">
+      <sortCondition ref="A1:A171"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
